--- a/InputData/elec/BECF/BAU Expected Capacity Factors_HK.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors_HK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\BECF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\elec\BECF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="5_{7DCD9C29-CF20-4285-90DE-04E34B84947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A31A68EC-A0F2-4176-93F5-CD3B1C5DF65F}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="5_{7DCD9C29-CF20-4285-90DE-04E34B84947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{892FB622-5FEE-498F-B9A1-4735FCA635A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="Table 6.7.B" sheetId="2" r:id="rId5"/>
     <sheet name="EIA 860 &amp; 923" sheetId="7" r:id="rId6"/>
     <sheet name="table 4.8.B" sheetId="10" r:id="rId7"/>
-    <sheet name="BECF-pre-ret" sheetId="4" r:id="rId8"/>
-    <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId9"/>
-    <sheet name="BECF-new" sheetId="6" r:id="rId10"/>
+    <sheet name="HK WTE" sheetId="11" r:id="rId8"/>
+    <sheet name="BECF-pre-ret" sheetId="4" r:id="rId9"/>
+    <sheet name="BECF-pre-nonret" sheetId="5" r:id="rId10"/>
+    <sheet name="BECF-new" sheetId="6" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'EIA 860 &amp; 923'!$A$2:$L$2</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="145">
   <si>
     <t>BAU Expected Capacity Factors</t>
   </si>
@@ -476,6 +477,21 @@
 Notes: Solar Thermal Capacity Factors include generation from plants using concentrated solar power energy storage.
 Sources: U.S. Energy Information Administration, Form EIA-923, Power Plant Operations Report; U.S. Energy Information Administration, Form EIA-860, 'Annual Electric Generator Report' and Form EIA-860M, 'Monthly Update to the Annual Electric Generator Report.'
 </t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>capacoty factor</t>
+  </si>
+  <si>
+    <t>KWh</t>
+  </si>
+  <si>
+    <t>cacpacity</t>
+  </si>
+  <si>
+    <t>generation</t>
   </si>
 </sst>
 </file>
@@ -912,6 +928,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -945,21 +974,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1067,6 +1083,54 @@
         <a:xfrm>
           <a:off x="0" y="7239000"/>
           <a:ext cx="9428571" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>378983</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104C6532-37EA-44EC-B055-E295DA6461AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="4907" r="28070" b="7421"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="209550"/>
+          <a:ext cx="6046358" cy="4143375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1521,14 +1585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:AJ17"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,6 +1712,2303 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>$B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:R14" si="1">$B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="D10:AJ14" si="2">$B10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:AJ17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="10">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1" s="10">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1" s="10">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1" s="10">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1" s="10">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1" s="10">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1" s="10">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1" s="10">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1" s="10">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1" s="10">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="11">
         <f>'BECF-pre-ret'!B2*1.1</f>
         <v>0.44931054233528406</v>
@@ -3824,144 +6185,144 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <f>'BECF-pre-ret'!B17*1.1</f>
-        <v>0.74800000000000011</v>
+        <f>'BECF-pre-ret'!B17</f>
+        <v>0.33208800332088001</v>
       </c>
       <c r="C17" s="11">
         <f>$B$17</f>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" ref="D17:AJ17" si="5">$B$17</f>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="U17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AC17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AD17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AE17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AF17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AG17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AH17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AI17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AJ17" s="11">
         <f t="shared" si="5"/>
-        <v>0.74800000000000011</v>
+        <v>0.33208800332088001</v>
       </c>
     </row>
   </sheetData>
@@ -3988,7 +6349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9FB73-B9D5-43D4-BBB8-72EF5C5032EC}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -4020,11 +6381,11 @@
       <c r="D3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -4581,17 +6942,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4600,17 +6961,17 @@
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="50" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4642,17 +7003,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -4771,17 +7132,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -5132,17 +7493,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -5493,17 +7854,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -5564,17 +7925,17 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5606,17 +7967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5648,17 +8009,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -5777,17 +8138,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -6138,17 +8499,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -6499,17 +8860,17 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -6570,17 +8931,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6615,22 +8976,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -22042,1295 +24403,1295 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="17.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="9" width="17.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="46" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="A4" s="47">
         <v>2013</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="48">
         <v>0.89900000000000002</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C4" s="48">
         <v>0.38900000000000001</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="48">
         <v>0.32400000000000001</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="48">
         <v>0.68899999999999995</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="48">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="48">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
+      <c r="A5" s="47">
         <v>2014</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="48">
         <v>0.91700000000000004</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="48">
         <v>0.373</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="48">
         <v>0.34</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="48">
         <v>0.25900000000000001</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="48">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="48">
         <v>0.68899999999999995</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="48">
         <v>0.58899999999999997</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="48">
         <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
+      <c r="A6" s="47">
         <v>2015</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="48">
         <v>0.92300000000000004</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="48">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="48">
         <v>0.32200000000000001</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="48">
         <v>0.25800000000000001</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="48">
         <v>0.221</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="48">
         <v>0.68700000000000006</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="48">
         <v>0.55300000000000005</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="48">
         <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="60">
+      <c r="A7" s="47">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="48">
         <v>0.92300000000000004</v>
       </c>
-      <c r="C7" s="60">
+      <c r="C7" s="48">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="48">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="48">
         <v>0.251</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="48">
         <v>0.222</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="48">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="48">
         <v>0.55600000000000005</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="48">
         <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
+      <c r="A8" s="47">
         <v>2017</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="48">
         <v>0.92200000000000004</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="48">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="48">
         <v>0.34599999999999997</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="48">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="48">
         <v>0.218</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="48">
         <v>0.68</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="48">
         <v>0.57799999999999996</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="48">
         <v>0.74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="48">
         <v>1.0129999999999999</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="48">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="48">
         <v>0.312</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="48">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="48">
         <v>0.05</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="48">
         <v>0.65100000000000002</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="48">
         <v>0.57199999999999995</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="48">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="48">
         <v>0.95799999999999996</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="48">
         <v>0.41399999999999998</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="48">
         <v>0.34100000000000003</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="48">
         <v>0.221</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="48">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="48">
         <v>0.64300000000000002</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="48">
         <v>0.6</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="48">
         <v>0.76400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="48">
         <v>0.88</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="48">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="48">
         <v>0.314</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="48">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="48">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="48">
         <v>0.63</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="48">
         <v>0.53400000000000003</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="48">
         <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="48">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="48">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="48">
         <v>0.375</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="48">
         <v>0.309</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="48">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="48">
         <v>0.66800000000000004</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="48">
         <v>0.47299999999999998</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="48">
         <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="48">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="48">
         <v>0.33900000000000002</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="48">
         <v>0.34799999999999998</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="48">
         <v>0.312</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="48">
         <v>0.27</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="48">
         <v>0.68500000000000005</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="48">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="48">
         <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="48">
         <v>0.96399999999999997</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="48">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="48">
         <v>0.27900000000000003</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="48">
         <v>0.317</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="48">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="48">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="48">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="48">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="48">
         <v>0.97299999999999998</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="48">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="48">
         <v>0.27400000000000002</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="48">
         <v>0.314</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="48">
         <v>0.311</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="48">
         <v>0.73099999999999998</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="48">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="48">
         <v>0.747</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="48">
         <v>0.98599999999999999</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="48">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="48">
         <v>0.25800000000000001</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="48">
         <v>0.313</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="48">
         <v>0.32300000000000001</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="48">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="48">
         <v>0.61599999999999999</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="48">
         <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="48">
         <v>0.93600000000000005</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="48">
         <v>0.28299999999999997</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="48">
         <v>0.28100000000000003</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="48">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="48">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="48">
         <v>0.68799999999999994</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="48">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="48">
         <v>0.67900000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="48">
         <v>0.82499999999999996</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="48">
         <v>0.28299999999999997</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="48">
         <v>0.316</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="48">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="48">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="48">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="48">
         <v>0.48799999999999999</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="48">
         <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="60">
+      <c r="B20" s="48">
         <v>0.84799999999999998</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="48">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="48">
         <v>0.39</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="48">
         <v>0.20699999999999999</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="48">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="48">
         <v>0.72399999999999998</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="48">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="48">
         <v>0.754</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="48">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="48">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="48">
         <v>0.374</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="48">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="48">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="48">
         <v>0.73</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="48">
         <v>0.58299999999999996</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="48">
         <v>0.753</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="48">
         <v>0.98499999999999999</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="48">
         <v>0.436</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D23" s="48">
         <v>0.33900000000000002</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="48">
         <v>0.152</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="48">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="48">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="48">
         <v>0.58499999999999996</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="48">
         <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="60">
+      <c r="B24" s="48">
         <v>0.95299999999999996</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="48">
         <v>0.438</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D24" s="48">
         <v>0.39600000000000002</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="48">
         <v>0.22900000000000001</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="48">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="48">
         <v>0.67600000000000005</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="48">
         <v>0.61199999999999999</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="48">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="48">
         <v>0.89900000000000002</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="48">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D25" s="60">
+      <c r="D25" s="48">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="48">
         <v>0.249</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="48">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="48">
         <v>0.67200000000000004</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="48">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="48">
         <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="60">
+      <c r="B26" s="48">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="48">
         <v>0.44600000000000001</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="48">
         <v>0.39300000000000002</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="48">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F26" s="60">
+      <c r="F26" s="48">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="48">
         <v>0.69299999999999995</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="48">
         <v>0.45800000000000002</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="48">
         <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="48">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="48">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="48">
         <v>0.34200000000000003</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="48">
         <v>0.30199999999999999</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="48">
         <v>0.28899999999999998</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="48">
         <v>0.72899999999999998</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="48">
         <v>0.47</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="48">
         <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="48">
         <v>0.94199999999999995</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="48">
         <v>0.40600000000000003</v>
       </c>
-      <c r="D28" s="60">
+      <c r="D28" s="48">
         <v>0.30499999999999999</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="48">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F28" s="60">
+      <c r="F28" s="48">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="48">
         <v>0.72</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="48">
         <v>0.54700000000000004</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="48">
         <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="48">
         <v>0.94499999999999995</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="48">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D29" s="60">
+      <c r="D29" s="48">
         <v>0.31900000000000001</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="48">
         <v>0.317</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="48">
         <v>0.36899999999999999</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="48">
         <v>0.70899999999999996</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="48">
         <v>0.59299999999999997</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="48">
         <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="48">
         <v>0.96099999999999997</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="48">
         <v>0.33</v>
       </c>
-      <c r="D30" s="60">
+      <c r="D30" s="48">
         <v>0.245</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="48">
         <v>0.317</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="48">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="48">
         <v>0.70299999999999996</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="48">
         <v>0.63500000000000001</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="48">
         <v>0.73</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="48">
         <v>0.90900000000000003</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="48">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="48">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="48">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="48">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="48">
         <v>0.67900000000000005</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="48">
         <v>0.58499999999999996</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="48">
         <v>0.755</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="48">
         <v>0.81699999999999995</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="48">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="48">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="48">
         <v>0.24</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="48">
         <v>0.191</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="48">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="48">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="48">
         <v>0.746</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="48">
         <v>0.90900000000000003</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="48">
         <v>0.32800000000000001</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="48">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="48">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="48">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="48">
         <v>0.72599999999999998</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="48">
         <v>0.54900000000000004</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="48">
         <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="48">
         <v>0.96699999999999997</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="48">
         <v>0.379</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="48">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="48">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="48">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="48">
         <v>0.59599999999999997</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="48">
         <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="60">
+      <c r="B36" s="48">
         <v>0.98699999999999999</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="48">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="48">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="48">
         <v>0.127</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="48">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="48">
         <v>0.73</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="48">
         <v>0.59699999999999998</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="48">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="48">
         <v>0.95</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="48">
         <v>0.441</v>
       </c>
-      <c r="D37" s="60">
+      <c r="D37" s="48">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="48">
         <v>0.17199999999999999</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="48">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="48">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="48">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="48">
         <v>0.753</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="60">
+      <c r="B38" s="48">
         <v>0.878</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="48">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D38" s="60">
+      <c r="D38" s="48">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="48">
         <v>0.251</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="48">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="48">
         <v>0.66700000000000004</v>
       </c>
-      <c r="H38" s="60">
+      <c r="H38" s="48">
         <v>0.60699999999999998</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="48">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="48">
         <v>0.79100000000000004</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="48">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D39" s="60">
+      <c r="D39" s="48">
         <v>0.41099999999999998</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="48">
         <v>0.28399999999999997</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="48">
         <v>0.249</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="48">
         <v>0.66400000000000003</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="48">
         <v>0.52300000000000002</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="48">
         <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="60">
+      <c r="B40" s="48">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C40" s="60">
+      <c r="C40" s="48">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="48">
         <v>0.36199999999999999</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="48">
         <v>0.32500000000000001</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="48">
         <v>0.31</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="48">
         <v>0.68700000000000006</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="48">
         <v>0.499</v>
       </c>
-      <c r="I40" s="60">
+      <c r="I40" s="48">
         <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="60">
+      <c r="B41" s="48">
         <v>0.93400000000000005</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="48">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="48">
         <v>0.32900000000000001</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="48">
         <v>0.35899999999999999</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="48">
         <v>0.379</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="48">
         <v>0.69699999999999995</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="48">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="48">
         <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="60">
+      <c r="B42" s="48">
         <v>0.96199999999999997</v>
       </c>
-      <c r="C42" s="60">
+      <c r="C42" s="48">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="48">
         <v>0.25600000000000001</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="48">
         <v>0.32700000000000001</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="48">
         <v>0.254</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="48">
         <v>0.67400000000000004</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="48">
         <v>0.60399999999999998</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="48">
         <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="60">
+      <c r="B43" s="48">
         <v>0.97699999999999998</v>
       </c>
-      <c r="C43" s="60">
+      <c r="C43" s="48">
         <v>0.373</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="48">
         <v>0.218</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="48">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="48">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="48">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H43" s="60">
+      <c r="H43" s="48">
         <v>0.60799999999999998</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="48">
         <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="60">
+      <c r="B44" s="48">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C44" s="60">
+      <c r="C44" s="48">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="48">
         <v>0.29499999999999998</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="48">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="48">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="48">
         <v>0.65700000000000003</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="48">
         <v>0.55200000000000005</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="48">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="48">
         <v>0.89</v>
       </c>
-      <c r="C45" s="60">
+      <c r="C45" s="48">
         <v>0.31</v>
       </c>
-      <c r="D45" s="60">
+      <c r="D45" s="48">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="48">
         <v>0.26400000000000001</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="48">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="48">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="48">
         <v>0.54100000000000004</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="48">
         <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B46" s="48">
         <v>0.92900000000000005</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C46" s="48">
         <v>0.36</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D46" s="48">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="48">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="48">
         <v>0.10299999999999999</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="48">
         <v>0.67800000000000005</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="48">
         <v>0.59899999999999998</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="48">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="60">
+      <c r="B47" s="48">
         <v>0.99399999999999999</v>
       </c>
-      <c r="C47" s="60">
+      <c r="C47" s="48">
         <v>0.377</v>
       </c>
-      <c r="D47" s="60">
+      <c r="D47" s="48">
         <v>0.38</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="48">
         <v>0.17699999999999999</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="48">
         <v>0.09</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="48">
         <v>0.69599999999999995</v>
       </c>
-      <c r="H47" s="60">
+      <c r="H47" s="48">
         <v>0.63300000000000001</v>
       </c>
-      <c r="I47" s="60">
+      <c r="I47" s="48">
         <v>0.85099999999999998</v>
       </c>
     </row>
@@ -23349,26 +25710,78 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A48:I48"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A48:I48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F138A-4001-4753-A40B-47FA80BD2B2E}">
+  <dimension ref="L3:N5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3">
+        <v>165</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4">
+        <f>480*10^6</f>
+        <v>480000000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5">
+        <f>M4/(M3*10^3*24*365)</f>
+        <v>0.33208800332088001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25664,2160 +28077,144 @@
         <v>136</v>
       </c>
       <c r="B17">
-        <f>'table 4.8.B'!G8</f>
-        <v>0.68</v>
+        <f>'HK WTE'!M5</f>
+        <v>0.33208800332088001</v>
       </c>
       <c r="C17">
         <f>$B$17</f>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:AJ17" si="6">$B$17</f>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="E17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="M17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="P17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Q17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="T17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="U17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="V17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="X17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Y17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="Z17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AA17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AB17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AC17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AD17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AE17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AF17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AG17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AH17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AI17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.33208800332088001</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="6"/>
-        <v>0.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:AJ17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1" s="10">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1" s="10">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-      <c r="Q1" s="10">
-        <v>2031</v>
-      </c>
-      <c r="R1">
-        <v>2032</v>
-      </c>
-      <c r="S1" s="10">
-        <v>2033</v>
-      </c>
-      <c r="T1">
-        <v>2034</v>
-      </c>
-      <c r="U1" s="10">
-        <v>2035</v>
-      </c>
-      <c r="V1">
-        <v>2036</v>
-      </c>
-      <c r="W1" s="10">
-        <v>2037</v>
-      </c>
-      <c r="X1">
-        <v>2038</v>
-      </c>
-      <c r="Y1" s="10">
-        <v>2039</v>
-      </c>
-      <c r="Z1">
-        <v>2040</v>
-      </c>
-      <c r="AA1" s="10">
-        <v>2041</v>
-      </c>
-      <c r="AB1">
-        <v>2042</v>
-      </c>
-      <c r="AC1" s="10">
-        <v>2043</v>
-      </c>
-      <c r="AD1">
-        <v>2044</v>
-      </c>
-      <c r="AE1" s="10">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1" s="10">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1" s="10">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>$B2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:AJ10" si="0">$B2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:R14" si="1">$B3</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="D10:AJ14" si="2">$B10</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
+        <v>0.33208800332088001</v>
       </c>
     </row>
   </sheetData>
@@ -27826,24 +28223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -28077,10 +28456,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1AADCBA-75E0-4238-AA5E-8B61BEBFF883}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C486905-DDF3-40FB-ACC3-EEA2A554339E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28104,21 +28513,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C486905-DDF3-40FB-ACC3-EEA2A554339E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1AADCBA-75E0-4238-AA5E-8B61BEBFF883}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>